--- a/trunk/1. Project management/11. Daily report/AS_PM_Update_Report.xlsx
+++ b/trunk/1. Project management/11. Daily report/AS_PM_Update_Report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NC\Desktop\Admission project\1. Project management\11. Daily report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\capstone\1. Project management\11. Daily report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>STT</t>
   </si>
@@ -54,6 +54,86 @@
   </si>
   <si>
     <t>Bảng theo dõi cập nhật các tài liệu trong dự án</t>
+  </si>
+  <si>
+    <t>19/12/2013</t>
+  </si>
+  <si>
+    <t>AS_RE_ArchitectureDriverSpecification</t>
+  </si>
+  <si>
+    <t>Chau Le</t>
+  </si>
+  <si>
+    <t>AS_PM_DeadlineTeam_TimeLog</t>
+  </si>
+  <si>
+    <t>Huy Ngo</t>
+  </si>
+  <si>
+    <t>25/12/2013</t>
+  </si>
+  <si>
+    <t>AS_DeadlineTeam_Week8</t>
+  </si>
+  <si>
+    <t>report with mentor</t>
+  </si>
+  <si>
+    <t>AS_PM_WeeklyReport_Week4</t>
+  </si>
+  <si>
+    <t>Khang Huynh</t>
+  </si>
+  <si>
+    <t>report requirement's task</t>
+  </si>
+  <si>
+    <t>AssignWorkTask-Week8-2412</t>
+  </si>
+  <si>
+    <t>AssignWorkTask-Week7-1912</t>
+  </si>
+  <si>
+    <t>AS_PM_WeeklyEvaluation_Week8</t>
+  </si>
+  <si>
+    <t>23/12/2013</t>
+  </si>
+  <si>
+    <t>Phu Ta</t>
+  </si>
+  <si>
+    <t>20/12/2013</t>
+  </si>
+  <si>
+    <t>22/12/2013</t>
+  </si>
+  <si>
+    <t>Cập nhật entity Tổng biên tập, biên tập, phóng viên, usecase module soạn tin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cập nhật danh sách entity và mô tả các entity Tổng biên tập, biên tập, phóng viên, quản trị danh mục, bộ phận trả lời, người dùng, công cụ soạn tin, công cụ hiển thị bài viết, công cụ quản trị bộ từ điển, công cụ hiển thị bộ từ điển, công cụ quản trị bộ từ điển trên android app, công cụ hiển thị bộ từ điển trên android app, email gateway
+Bỏ các phần liên quan đến usecase
+</t>
+  </si>
+  <si>
+    <t>Cập nhật danh sách entity và tất cả các mô tả entity</t>
+  </si>
+  <si>
+    <t>Cập nhật mô tả entity tổng biên tập,biên tập,phóng viên,người dùng,bộ phận trả lời,công cụ soạn tin,công cụ hiển thị bài viết,công cụ quản trị bộ từ điển,công cụ hiển thị bộ từ điển</t>
+  </si>
+  <si>
+    <t>Cập nhật mô tả entity tổng biên tập,biên tập,phóng viên,người dùng,bộ phận trả lời,công cụ soạn tin,công cụ hiển thị bài viết trên internet, công cụ hiển thị bài viết trên intranet,công cụ quản trị bộ từ điển,công cụ hiển thị bộ từ điển, công cụ quản trị bộ từ điển trên android app,công cụ hiển thị bộ từ điển trên android app,database intranet.</t>
+  </si>
+  <si>
+    <t>phân công công việc trong nhóm</t>
+  </si>
+  <si>
+    <t>đo lường tiến độ</t>
+  </si>
+  <si>
+    <t>đánh giá các thành viên</t>
   </si>
 </sst>
 </file>
@@ -63,11 +143,11 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -75,7 +155,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -83,14 +163,14 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -98,9 +178,15 @@
       <b/>
       <sz val="10"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -155,20 +241,55 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,42 +570,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.625" customWidth="1"/>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.375" customWidth="1"/>
-    <col min="4" max="4" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" style="20" customWidth="1"/>
+    <col min="6" max="6" width="66.42578125" style="14" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D2" s="9"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="15"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -494,561 +617,733 @@
       <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="6"/>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="6"/>
+    <row r="5" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="6"/>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="11">
+        <v>1</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>30</v>
+      </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="6"/>
+    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>4</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>31</v>
+      </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="6"/>
+    <row r="8" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>5</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="11">
+        <v>1.2</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>32</v>
+      </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="6"/>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>6</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="11">
+        <v>1</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>33</v>
+      </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="6"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>7</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="11">
+        <v>1</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>33</v>
+      </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="6"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>34</v>
+      </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="6"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>9</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="11">
+        <v>1</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>17</v>
+      </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="6"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>10</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="11">
+        <v>1</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>20</v>
+      </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="6"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>11</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="11">
+        <v>1</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>35</v>
+      </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
-      <c r="B15" s="7"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="6"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="18"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
-      <c r="B16" s="7"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="6"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="18"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
-      <c r="B17" s="7"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="6"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="18"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
-      <c r="B18" s="7"/>
+      <c r="B18" s="6"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="6"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="18"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
-      <c r="B19" s="7"/>
+      <c r="B19" s="6"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="6"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="18"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
-      <c r="B20" s="7"/>
+      <c r="B20" s="6"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="6"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="18"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="7"/>
+      <c r="B21" s="6"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="6"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="18"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
-      <c r="B22" s="7"/>
+      <c r="B22" s="6"/>
       <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="6"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="18"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
-      <c r="B23" s="7"/>
+      <c r="B23" s="6"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="6"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="18"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
-      <c r="B24" s="7"/>
+      <c r="B24" s="6"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="6"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="18"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
-      <c r="B25" s="7"/>
+      <c r="B25" s="6"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="6"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="18"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
-      <c r="B26" s="7"/>
+      <c r="B26" s="6"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="6"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="18"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
-      <c r="B27" s="7"/>
+      <c r="B27" s="6"/>
       <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="6"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="18"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
-      <c r="B28" s="7"/>
+      <c r="B28" s="6"/>
       <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="6"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="18"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
-      <c r="B29" s="7"/>
+      <c r="B29" s="6"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="6"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="18"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
-      <c r="B30" s="7"/>
+      <c r="B30" s="6"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="6"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="18"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
-      <c r="B31" s="7"/>
+      <c r="B31" s="6"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="6"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="18"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
-      <c r="B32" s="7"/>
+      <c r="B32" s="6"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="6"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="18"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
-      <c r="B33" s="7"/>
+      <c r="B33" s="6"/>
       <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="6"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="18"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
-      <c r="B34" s="7"/>
+      <c r="B34" s="6"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="6"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="18"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
-      <c r="B35" s="7"/>
+      <c r="B35" s="6"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="6"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="18"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
-      <c r="B36" s="7"/>
+      <c r="B36" s="6"/>
       <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="6"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="18"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
-      <c r="B37" s="7"/>
+      <c r="B37" s="6"/>
       <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="6"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="18"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
-      <c r="B38" s="7"/>
+      <c r="B38" s="6"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="6"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="18"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
-      <c r="B39" s="7"/>
+      <c r="B39" s="6"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="6"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="18"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
-      <c r="B40" s="7"/>
+      <c r="B40" s="6"/>
       <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="6"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="18"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
-      <c r="B41" s="7"/>
+      <c r="B41" s="6"/>
       <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="6"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="18"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
-      <c r="B42" s="7"/>
+      <c r="B42" s="6"/>
       <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="6"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="18"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
-      <c r="B43" s="7"/>
+      <c r="B43" s="6"/>
       <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="6"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="18"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
-      <c r="B44" s="7"/>
+      <c r="B44" s="6"/>
       <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="6"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="18"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
-      <c r="B45" s="7"/>
+      <c r="B45" s="6"/>
       <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="6"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="18"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
-      <c r="B46" s="7"/>
+      <c r="B46" s="6"/>
       <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="6"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="18"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
-      <c r="B47" s="7"/>
+      <c r="B47" s="6"/>
       <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="6"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="18"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
-      <c r="B48" s="7"/>
+      <c r="B48" s="6"/>
       <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="6"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="18"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
-      <c r="B49" s="7"/>
+      <c r="B49" s="6"/>
       <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="6"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="18"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
-      <c r="B50" s="7"/>
+      <c r="B50" s="6"/>
       <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="6"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="18"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
-      <c r="B51" s="7"/>
+      <c r="B51" s="6"/>
       <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="6"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="18"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
-      <c r="B52" s="7"/>
+      <c r="B52" s="6"/>
       <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="6"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="18"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
-      <c r="B53" s="7"/>
+      <c r="B53" s="6"/>
       <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="6"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="18"/>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
-      <c r="B54" s="7"/>
+      <c r="B54" s="6"/>
       <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="6"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="18"/>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
-      <c r="B55" s="7"/>
+      <c r="B55" s="6"/>
       <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="6"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="18"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
-      <c r="B56" s="7"/>
+      <c r="B56" s="6"/>
       <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="6"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="18"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
-      <c r="B57" s="7"/>
+      <c r="B57" s="6"/>
       <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="6"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="18"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="5"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="5"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="5"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="5"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/1. Project management/11. Daily report/AS_PM_Update_Report.xlsx
+++ b/trunk/1. Project management/11. Daily report/AS_PM_Update_Report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\capstone\1. Project management\11. Daily report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huy\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="36">
   <si>
     <t>STT</t>
   </si>
@@ -241,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -289,6 +289,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -572,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,8 +655,12 @@
       <c r="F4" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="G4" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
@@ -674,8 +681,12 @@
       <c r="F5" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="G5" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
@@ -696,8 +707,12 @@
       <c r="F6" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="G6" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
@@ -718,8 +733,12 @@
       <c r="F7" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="G7" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
@@ -740,8 +759,12 @@
       <c r="F8" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="G8" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
@@ -762,8 +785,12 @@
       <c r="F9" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="G9" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
@@ -784,8 +811,12 @@
       <c r="F10" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="G10" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
@@ -806,8 +837,12 @@
       <c r="F11" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="G11" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
@@ -828,8 +863,12 @@
       <c r="F12" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="G12" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
@@ -850,8 +889,12 @@
       <c r="F13" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="G13" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
@@ -872,8 +915,12 @@
       <c r="F14" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+      <c r="G14" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>

--- a/trunk/1. Project management/11. Daily report/AS_PM_Update_Report.xlsx
+++ b/trunk/1. Project management/11. Daily report/AS_PM_Update_Report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huy\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\capstone\1. Project management\11. Daily report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="43">
   <si>
     <t>STT</t>
   </si>
@@ -134,6 +134,27 @@
   </si>
   <si>
     <t>đánh giá các thành viên</t>
+  </si>
+  <si>
+    <t>Update entities and usecases</t>
+  </si>
+  <si>
+    <t>Update list quality attributes</t>
+  </si>
+  <si>
+    <t>Công việc 7-1-2014</t>
+  </si>
+  <si>
+    <t>Công việc 30-12-13</t>
+  </si>
+  <si>
+    <t>30/12/2013</t>
+  </si>
+  <si>
+    <t>AS_DeadlineTeam_Week10</t>
+  </si>
+  <si>
+    <t>AS_PM_WeeklyEvaluation_Week10</t>
   </si>
 </sst>
 </file>
@@ -189,7 +210,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -199,6 +220,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -241,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -257,21 +284,12 @@
     <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -290,8 +308,33 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -575,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,8 +628,8 @@
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" style="20" customWidth="1"/>
-    <col min="6" max="6" width="66.42578125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="66.42578125" style="13" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
@@ -607,8 +650,8 @@
         <v>1</v>
       </c>
       <c r="D2" s="9"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="15"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -623,10 +666,10 @@
       <c r="D3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="16" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="7" t="s">
@@ -637,368 +680,480 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="21">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="23">
         <v>0.8</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="21" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="21">
         <v>2</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="23">
         <v>0.9</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="26" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="21">
         <v>3</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="23">
         <v>1</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="26" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="21">
         <v>4</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="23">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="26" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="21">
         <v>5</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="23">
         <v>1.2</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="26" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="21">
         <v>6</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="23">
         <v>1</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="22" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="21">
         <v>7</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="23">
         <v>1</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="22" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="21">
         <v>8</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="23">
         <v>1</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="22" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="21">
         <v>9</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="23">
         <v>1</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="24" t="s">
+      <c r="G12" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="22" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="21">
         <v>10</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="23">
         <v>1</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="22" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="21">
         <v>11</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="23">
         <v>1</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="24" t="s">
+      <c r="G14" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="22" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+      <c r="A15" s="5">
+        <v>12</v>
+      </c>
+      <c r="B15" s="6">
+        <v>41821</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="11">
+        <v>1.3</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="6">
+        <v>41821</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
+      <c r="A16" s="5">
+        <v>13</v>
+      </c>
+      <c r="B16" s="6">
+        <v>41647</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="6">
+        <v>41647</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
+      <c r="A17" s="5">
+        <v>14</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="11">
+        <v>1</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
+      <c r="A18" s="5">
+        <v>15</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="11">
+        <v>1</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
+      <c r="A19" s="5">
+        <v>16</v>
+      </c>
+      <c r="B19" s="6">
+        <v>41852</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="11">
+        <v>1</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="6">
+        <v>41852</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+      <c r="A20" s="5">
+        <v>17</v>
+      </c>
+      <c r="B20" s="6">
+        <v>41852</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="11">
+        <v>1</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="6">
+        <v>41852</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
+      <c r="A21" s="5">
+        <v>18</v>
+      </c>
+      <c r="B21" s="6">
+        <v>41852</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="11">
+        <v>1</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="6">
+        <v>41852</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="5"/>
       <c r="D22" s="11"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="18"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="15"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
     </row>
@@ -1007,8 +1162,8 @@
       <c r="B23" s="6"/>
       <c r="C23" s="5"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="18"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="15"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
     </row>
@@ -1017,8 +1172,8 @@
       <c r="B24" s="6"/>
       <c r="C24" s="5"/>
       <c r="D24" s="11"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="18"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="15"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
     </row>
@@ -1027,8 +1182,8 @@
       <c r="B25" s="6"/>
       <c r="C25" s="5"/>
       <c r="D25" s="11"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="18"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="15"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
     </row>
@@ -1037,8 +1192,8 @@
       <c r="B26" s="6"/>
       <c r="C26" s="5"/>
       <c r="D26" s="11"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="18"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="15"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
     </row>
@@ -1047,8 +1202,8 @@
       <c r="B27" s="6"/>
       <c r="C27" s="5"/>
       <c r="D27" s="11"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="18"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="15"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
     </row>
@@ -1057,8 +1212,8 @@
       <c r="B28" s="6"/>
       <c r="C28" s="5"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="18"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="15"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
     </row>
@@ -1067,8 +1222,8 @@
       <c r="B29" s="6"/>
       <c r="C29" s="5"/>
       <c r="D29" s="11"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="18"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="15"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
     </row>
@@ -1077,8 +1232,8 @@
       <c r="B30" s="6"/>
       <c r="C30" s="5"/>
       <c r="D30" s="11"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="18"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="15"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
     </row>
@@ -1087,8 +1242,8 @@
       <c r="B31" s="6"/>
       <c r="C31" s="5"/>
       <c r="D31" s="11"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="18"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="15"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
     </row>
@@ -1097,8 +1252,8 @@
       <c r="B32" s="6"/>
       <c r="C32" s="5"/>
       <c r="D32" s="11"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="18"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="15"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
     </row>
@@ -1107,8 +1262,8 @@
       <c r="B33" s="6"/>
       <c r="C33" s="5"/>
       <c r="D33" s="11"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="18"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="15"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
     </row>
@@ -1117,8 +1272,8 @@
       <c r="B34" s="6"/>
       <c r="C34" s="5"/>
       <c r="D34" s="11"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="18"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="15"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
     </row>
@@ -1127,8 +1282,8 @@
       <c r="B35" s="6"/>
       <c r="C35" s="5"/>
       <c r="D35" s="11"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="18"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="15"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
     </row>
@@ -1137,8 +1292,8 @@
       <c r="B36" s="6"/>
       <c r="C36" s="5"/>
       <c r="D36" s="11"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="18"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="15"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
     </row>
@@ -1147,8 +1302,8 @@
       <c r="B37" s="6"/>
       <c r="C37" s="5"/>
       <c r="D37" s="11"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="18"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="15"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
     </row>
@@ -1157,8 +1312,8 @@
       <c r="B38" s="6"/>
       <c r="C38" s="5"/>
       <c r="D38" s="11"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="18"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="15"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
     </row>
@@ -1167,8 +1322,8 @@
       <c r="B39" s="6"/>
       <c r="C39" s="5"/>
       <c r="D39" s="11"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="18"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="15"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
     </row>
@@ -1177,8 +1332,8 @@
       <c r="B40" s="6"/>
       <c r="C40" s="5"/>
       <c r="D40" s="11"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="18"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="15"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
     </row>
@@ -1187,8 +1342,8 @@
       <c r="B41" s="6"/>
       <c r="C41" s="5"/>
       <c r="D41" s="11"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="18"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="15"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
     </row>
@@ -1197,8 +1352,8 @@
       <c r="B42" s="6"/>
       <c r="C42" s="5"/>
       <c r="D42" s="11"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="18"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="15"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
     </row>
@@ -1207,8 +1362,8 @@
       <c r="B43" s="6"/>
       <c r="C43" s="5"/>
       <c r="D43" s="11"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="18"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="15"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
     </row>
@@ -1217,8 +1372,8 @@
       <c r="B44" s="6"/>
       <c r="C44" s="5"/>
       <c r="D44" s="11"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="18"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="15"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
     </row>
@@ -1227,8 +1382,8 @@
       <c r="B45" s="6"/>
       <c r="C45" s="5"/>
       <c r="D45" s="11"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="18"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="15"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
     </row>
@@ -1237,8 +1392,8 @@
       <c r="B46" s="6"/>
       <c r="C46" s="5"/>
       <c r="D46" s="11"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="18"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="15"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
     </row>
@@ -1247,8 +1402,8 @@
       <c r="B47" s="6"/>
       <c r="C47" s="5"/>
       <c r="D47" s="11"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="18"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="15"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
     </row>
@@ -1257,8 +1412,8 @@
       <c r="B48" s="6"/>
       <c r="C48" s="5"/>
       <c r="D48" s="11"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="18"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="15"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
     </row>
@@ -1267,8 +1422,8 @@
       <c r="B49" s="6"/>
       <c r="C49" s="5"/>
       <c r="D49" s="11"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="18"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="15"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
     </row>
@@ -1277,8 +1432,8 @@
       <c r="B50" s="6"/>
       <c r="C50" s="5"/>
       <c r="D50" s="11"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="18"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="15"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
     </row>
@@ -1287,8 +1442,8 @@
       <c r="B51" s="6"/>
       <c r="C51" s="5"/>
       <c r="D51" s="11"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="18"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="15"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
     </row>
@@ -1297,8 +1452,8 @@
       <c r="B52" s="6"/>
       <c r="C52" s="5"/>
       <c r="D52" s="11"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="18"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="15"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
     </row>
@@ -1307,8 +1462,8 @@
       <c r="B53" s="6"/>
       <c r="C53" s="5"/>
       <c r="D53" s="11"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="18"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="15"/>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
     </row>
@@ -1317,8 +1472,8 @@
       <c r="B54" s="6"/>
       <c r="C54" s="5"/>
       <c r="D54" s="11"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="18"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="15"/>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
     </row>
@@ -1327,8 +1482,8 @@
       <c r="B55" s="6"/>
       <c r="C55" s="5"/>
       <c r="D55" s="11"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="18"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="15"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
     </row>
@@ -1337,8 +1492,8 @@
       <c r="B56" s="6"/>
       <c r="C56" s="5"/>
       <c r="D56" s="11"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="18"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="15"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
     </row>
@@ -1347,8 +1502,8 @@
       <c r="B57" s="6"/>
       <c r="C57" s="5"/>
       <c r="D57" s="11"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="18"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="15"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
     </row>
@@ -1357,8 +1512,8 @@
       <c r="B58" s="6"/>
       <c r="C58" s="5"/>
       <c r="D58" s="11"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="18"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="15"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
     </row>
@@ -1367,8 +1522,8 @@
       <c r="B59" s="6"/>
       <c r="C59" s="5"/>
       <c r="D59" s="11"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="18"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="15"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
     </row>
@@ -1377,8 +1532,8 @@
       <c r="B60" s="6"/>
       <c r="C60" s="5"/>
       <c r="D60" s="11"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="18"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="15"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
     </row>
@@ -1387,8 +1542,8 @@
       <c r="B61" s="6"/>
       <c r="C61" s="5"/>
       <c r="D61" s="11"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="18"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="15"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
     </row>

--- a/trunk/1. Project management/11. Daily report/AS_PM_Update_Report.xlsx
+++ b/trunk/1. Project management/11. Daily report/AS_PM_Update_Report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\capstone\1. Project management\11. Daily report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\AS project\Admission System\1. Project management\11. Daily report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -168,7 +168,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -176,7 +176,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -184,14 +184,14 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -199,7 +199,7 @@
       <b/>
       <sz val="10"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -316,9 +316,6 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -335,6 +332,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -619,27 +619,27 @@
   <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="66.42578125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="34.5" style="13" customWidth="1"/>
+    <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -653,7 +653,7 @@
       <c r="E2" s="18"/>
       <c r="F2" s="14"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -679,7 +679,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="21">
         <v>1</v>
       </c>
@@ -695,7 +695,7 @@
       <c r="E4" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="32" t="s">
         <v>28</v>
       </c>
       <c r="G4" s="24" t="s">
@@ -705,11 +705,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A5" s="21">
         <v>2</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="25" t="s">
         <v>26</v>
       </c>
       <c r="C5" s="21" t="s">
@@ -721,21 +721,21 @@
       <c r="E5" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="26" t="s">
         <v>29</v>
       </c>
       <c r="G5" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="H5" s="25" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6" s="21">
         <v>3</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="25" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="21" t="s">
@@ -747,21 +747,21 @@
       <c r="E6" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="26" t="s">
         <v>30</v>
       </c>
       <c r="G6" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A7" s="21">
         <v>4</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="25" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="21" t="s">
@@ -773,21 +773,21 @@
       <c r="E7" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="26" t="s">
         <v>31</v>
       </c>
       <c r="G7" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="26" t="s">
+      <c r="H7" s="25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A8" s="21">
         <v>5</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="25" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="21" t="s">
@@ -799,17 +799,17 @@
       <c r="E8" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="26" t="s">
         <v>32</v>
       </c>
       <c r="G8" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="21">
         <v>6</v>
       </c>
@@ -825,7 +825,7 @@
       <c r="E9" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="27" t="s">
         <v>33</v>
       </c>
       <c r="G9" s="24" t="s">
@@ -835,7 +835,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="21">
         <v>7</v>
       </c>
@@ -851,7 +851,7 @@
       <c r="E10" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="27" t="s">
         <v>33</v>
       </c>
       <c r="G10" s="24" t="s">
@@ -861,7 +861,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="21">
         <v>8</v>
       </c>
@@ -877,17 +877,17 @@
       <c r="E11" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="G11" s="28" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="21">
         <v>9</v>
       </c>
@@ -903,17 +903,17 @@
       <c r="E12" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="29" t="s">
+      <c r="G12" s="28" t="s">
         <v>14</v>
       </c>
       <c r="H12" s="22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="21">
         <v>10</v>
       </c>
@@ -929,17 +929,17 @@
       <c r="E13" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="F13" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="G13" s="28" t="s">
         <v>14</v>
       </c>
       <c r="H13" s="22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="21">
         <v>11</v>
       </c>
@@ -955,17 +955,17 @@
       <c r="E14" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="29" t="s">
+      <c r="G14" s="28" t="s">
         <v>14</v>
       </c>
       <c r="H14" s="22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>12</v>
       </c>
@@ -981,7 +981,7 @@
       <c r="E15" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="30" t="s">
+      <c r="F15" s="29" t="s">
         <v>36</v>
       </c>
       <c r="G15" s="5" t="s">
@@ -991,7 +991,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>13</v>
       </c>
@@ -1007,7 +1007,7 @@
       <c r="E16" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="31" t="s">
+      <c r="F16" s="30" t="s">
         <v>37</v>
       </c>
       <c r="G16" s="5" t="s">
@@ -1017,7 +1017,7 @@
         <v>41647</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>14</v>
       </c>
@@ -1033,7 +1033,7 @@
       <c r="E17" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="32" t="s">
+      <c r="F17" s="31" t="s">
         <v>33</v>
       </c>
       <c r="G17" s="5" t="s">
@@ -1043,7 +1043,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>15</v>
       </c>
@@ -1059,7 +1059,7 @@
       <c r="E18" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="32" t="s">
+      <c r="F18" s="31" t="s">
         <v>33</v>
       </c>
       <c r="G18" s="5" t="s">
@@ -1069,7 +1069,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>16</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>41852</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>17</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>41852</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>18</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>41852</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="5"/>
@@ -1157,7 +1157,7 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="6"/>
       <c r="C23" s="5"/>
@@ -1167,7 +1167,7 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="6"/>
       <c r="C24" s="5"/>
@@ -1177,7 +1177,7 @@
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" s="5"/>
@@ -1187,7 +1187,7 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="6"/>
       <c r="C26" s="5"/>
@@ -1197,7 +1197,7 @@
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="5"/>
@@ -1207,7 +1207,7 @@
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="6"/>
       <c r="C28" s="5"/>
@@ -1217,7 +1217,7 @@
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="5"/>
@@ -1227,7 +1227,7 @@
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
       <c r="B30" s="6"/>
       <c r="C30" s="5"/>
@@ -1237,7 +1237,7 @@
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="6"/>
       <c r="C31" s="5"/>
@@ -1247,7 +1247,7 @@
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="6"/>
       <c r="C32" s="5"/>
@@ -1257,7 +1257,7 @@
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="B33" s="6"/>
       <c r="C33" s="5"/>
@@ -1267,7 +1267,7 @@
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="6"/>
       <c r="C34" s="5"/>
@@ -1277,7 +1277,7 @@
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="5"/>
@@ -1287,7 +1287,7 @@
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
       <c r="B36" s="6"/>
       <c r="C36" s="5"/>
@@ -1297,7 +1297,7 @@
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="5"/>
@@ -1307,7 +1307,7 @@
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
       <c r="B38" s="6"/>
       <c r="C38" s="5"/>
@@ -1317,7 +1317,7 @@
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
       <c r="B39" s="6"/>
       <c r="C39" s="5"/>
@@ -1327,7 +1327,7 @@
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
       <c r="B40" s="6"/>
       <c r="C40" s="5"/>
@@ -1337,7 +1337,7 @@
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
       <c r="B41" s="6"/>
       <c r="C41" s="5"/>
@@ -1347,7 +1347,7 @@
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
       <c r="B42" s="6"/>
       <c r="C42" s="5"/>
@@ -1357,7 +1357,7 @@
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="C43" s="5"/>
@@ -1367,7 +1367,7 @@
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
       <c r="B44" s="6"/>
       <c r="C44" s="5"/>
@@ -1377,7 +1377,7 @@
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
       <c r="B45" s="6"/>
       <c r="C45" s="5"/>
@@ -1387,7 +1387,7 @@
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="5"/>
       <c r="B46" s="6"/>
       <c r="C46" s="5"/>
@@ -1397,7 +1397,7 @@
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
       <c r="B47" s="6"/>
       <c r="C47" s="5"/>
@@ -1407,7 +1407,7 @@
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="5"/>
       <c r="B48" s="6"/>
       <c r="C48" s="5"/>
@@ -1417,7 +1417,7 @@
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
       <c r="B49" s="6"/>
       <c r="C49" s="5"/>
@@ -1427,7 +1427,7 @@
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="5"/>
       <c r="B50" s="6"/>
       <c r="C50" s="5"/>
@@ -1437,7 +1437,7 @@
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="5"/>
       <c r="B51" s="6"/>
       <c r="C51" s="5"/>
@@ -1447,7 +1447,7 @@
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="5"/>
       <c r="B52" s="6"/>
       <c r="C52" s="5"/>
@@ -1457,7 +1457,7 @@
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="5"/>
       <c r="B53" s="6"/>
       <c r="C53" s="5"/>
@@ -1467,7 +1467,7 @@
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="5"/>
       <c r="B54" s="6"/>
       <c r="C54" s="5"/>
@@ -1477,7 +1477,7 @@
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="5"/>
       <c r="B55" s="6"/>
       <c r="C55" s="5"/>
@@ -1487,7 +1487,7 @@
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="5"/>
       <c r="B56" s="6"/>
       <c r="C56" s="5"/>
@@ -1497,7 +1497,7 @@
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="5"/>
       <c r="B57" s="6"/>
       <c r="C57" s="5"/>
@@ -1507,7 +1507,7 @@
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="5"/>
       <c r="B58" s="6"/>
       <c r="C58" s="5"/>
@@ -1517,7 +1517,7 @@
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="5"/>
       <c r="B59" s="6"/>
       <c r="C59" s="5"/>
@@ -1527,7 +1527,7 @@
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="5"/>
       <c r="B60" s="6"/>
       <c r="C60" s="5"/>
@@ -1537,7 +1537,7 @@
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="5"/>
       <c r="B61" s="6"/>
       <c r="C61" s="5"/>

--- a/trunk/1. Project management/11. Daily report/AS_PM_Update_Report.xlsx
+++ b/trunk/1. Project management/11. Daily report/AS_PM_Update_Report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\AS project\Admission System\1. Project management\11. Daily report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\capstone\1. Project management\11. Daily report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="46">
   <si>
     <t>STT</t>
   </si>
@@ -155,6 +155,15 @@
   </si>
   <si>
     <t>AS_PM_WeeklyEvaluation_Week10</t>
+  </si>
+  <si>
+    <t>18/03/2014</t>
+  </si>
+  <si>
+    <t>19/03/2014</t>
+  </si>
+  <si>
+    <t>Update usecase description</t>
   </si>
 </sst>
 </file>
@@ -168,7 +177,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -176,7 +185,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -184,14 +193,14 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -199,7 +208,7 @@
       <b/>
       <sz val="10"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -268,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -335,6 +344,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -618,28 +633,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.625" customWidth="1"/>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.875" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="34.5" style="13" customWidth="1"/>
-    <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -653,7 +668,7 @@
       <c r="E2" s="18"/>
       <c r="F2" s="14"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -679,7 +694,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="21">
         <v>1</v>
       </c>
@@ -705,7 +720,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="156.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A5" s="21">
         <v>2</v>
       </c>
@@ -731,7 +746,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="21">
         <v>3</v>
       </c>
@@ -757,7 +772,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="21">
         <v>4</v>
       </c>
@@ -783,7 +798,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A8" s="21">
         <v>5</v>
       </c>
@@ -809,7 +824,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="21">
         <v>6</v>
       </c>
@@ -835,7 +850,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="21">
         <v>7</v>
       </c>
@@ -861,7 +876,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="21">
         <v>8</v>
       </c>
@@ -887,7 +902,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="21">
         <v>9</v>
       </c>
@@ -913,7 +928,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="21">
         <v>10</v>
       </c>
@@ -939,7 +954,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="21">
         <v>11</v>
       </c>
@@ -965,7 +980,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>12</v>
       </c>
@@ -991,7 +1006,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>13</v>
       </c>
@@ -1017,7 +1032,7 @@
         <v>41647</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>14</v>
       </c>
@@ -1043,7 +1058,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>15</v>
       </c>
@@ -1069,7 +1084,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>16</v>
       </c>
@@ -1095,7 +1110,7 @@
         <v>41852</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>17</v>
       </c>
@@ -1121,7 +1136,7 @@
         <v>41852</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>18</v>
       </c>
@@ -1147,28 +1162,34 @@
         <v>41852</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>18</v>
+      </c>
+      <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="11"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="15"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="34"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6"/>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>18</v>
+      </c>
+      <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="15"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="34"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>18</v>
+      </c>
       <c r="B24" s="6"/>
       <c r="C24" s="5"/>
       <c r="D24" s="11"/>
@@ -1177,8 +1198,10 @@
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="5"/>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>18</v>
+      </c>
       <c r="B25" s="6"/>
       <c r="C25" s="5"/>
       <c r="D25" s="11"/>
@@ -1187,8 +1210,10 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="5"/>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>18</v>
+      </c>
       <c r="B26" s="6"/>
       <c r="C26" s="5"/>
       <c r="D26" s="11"/>
@@ -1197,8 +1222,10 @@
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="5"/>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>18</v>
+      </c>
       <c r="B27" s="6"/>
       <c r="C27" s="5"/>
       <c r="D27" s="11"/>
@@ -1207,8 +1234,10 @@
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="5"/>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>18</v>
+      </c>
       <c r="B28" s="6"/>
       <c r="C28" s="5"/>
       <c r="D28" s="11"/>
@@ -1217,8 +1246,10 @@
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="5"/>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>18</v>
+      </c>
       <c r="B29" s="6"/>
       <c r="C29" s="5"/>
       <c r="D29" s="11"/>
@@ -1227,8 +1258,10 @@
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="5"/>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>18</v>
+      </c>
       <c r="B30" s="6"/>
       <c r="C30" s="5"/>
       <c r="D30" s="11"/>
@@ -1237,8 +1270,10 @@
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="5"/>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>18</v>
+      </c>
       <c r="B31" s="6"/>
       <c r="C31" s="5"/>
       <c r="D31" s="11"/>
@@ -1247,8 +1282,10 @@
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="5"/>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>18</v>
+      </c>
       <c r="B32" s="6"/>
       <c r="C32" s="5"/>
       <c r="D32" s="11"/>
@@ -1257,8 +1294,10 @@
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="5"/>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>18</v>
+      </c>
       <c r="B33" s="6"/>
       <c r="C33" s="5"/>
       <c r="D33" s="11"/>
@@ -1267,8 +1306,10 @@
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="5"/>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>18</v>
+      </c>
       <c r="B34" s="6"/>
       <c r="C34" s="5"/>
       <c r="D34" s="11"/>
@@ -1277,8 +1318,10 @@
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="5"/>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>18</v>
+      </c>
       <c r="B35" s="6"/>
       <c r="C35" s="5"/>
       <c r="D35" s="11"/>
@@ -1287,8 +1330,10 @@
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="5"/>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>18</v>
+      </c>
       <c r="B36" s="6"/>
       <c r="C36" s="5"/>
       <c r="D36" s="11"/>
@@ -1297,27 +1342,59 @@
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="5"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>19</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>20</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="6"/>
       <c r="C39" s="5"/>
@@ -1327,7 +1404,7 @@
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="6"/>
       <c r="C40" s="5"/>
@@ -1337,7 +1414,7 @@
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="6"/>
       <c r="C41" s="5"/>
@@ -1347,7 +1424,7 @@
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="6"/>
       <c r="C42" s="5"/>
@@ -1357,7 +1434,7 @@
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="C43" s="5"/>
@@ -1367,7 +1444,7 @@
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="6"/>
       <c r="C44" s="5"/>
@@ -1377,7 +1454,7 @@
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="6"/>
       <c r="C45" s="5"/>
@@ -1387,7 +1464,7 @@
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="6"/>
       <c r="C46" s="5"/>
@@ -1397,7 +1474,7 @@
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="6"/>
       <c r="C47" s="5"/>
@@ -1407,7 +1484,7 @@
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="6"/>
       <c r="C48" s="5"/>
@@ -1417,7 +1494,7 @@
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="6"/>
       <c r="C49" s="5"/>
@@ -1427,7 +1504,7 @@
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
       <c r="B50" s="6"/>
       <c r="C50" s="5"/>
@@ -1437,7 +1514,7 @@
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
       <c r="B51" s="6"/>
       <c r="C51" s="5"/>
@@ -1447,7 +1524,7 @@
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
       <c r="B52" s="6"/>
       <c r="C52" s="5"/>
@@ -1457,7 +1534,7 @@
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
       <c r="B53" s="6"/>
       <c r="C53" s="5"/>
@@ -1467,7 +1544,7 @@
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
       <c r="B54" s="6"/>
       <c r="C54" s="5"/>
@@ -1477,7 +1554,7 @@
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
       <c r="B55" s="6"/>
       <c r="C55" s="5"/>
@@ -1487,7 +1564,7 @@
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
       <c r="B56" s="6"/>
       <c r="C56" s="5"/>
@@ -1497,7 +1574,7 @@
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
       <c r="B57" s="6"/>
       <c r="C57" s="5"/>
@@ -1507,7 +1584,7 @@
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
       <c r="B58" s="6"/>
       <c r="C58" s="5"/>
@@ -1517,7 +1594,7 @@
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
       <c r="B59" s="6"/>
       <c r="C59" s="5"/>
@@ -1527,7 +1604,7 @@
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="B60" s="6"/>
       <c r="C60" s="5"/>
@@ -1537,7 +1614,7 @@
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
       <c r="B61" s="6"/>
       <c r="C61" s="5"/>
